--- a/attachments/阴阳师式神传记解锁进度统计表.xlsx
+++ b/attachments/阴阳师式神传记解锁进度统计表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\mysite\static\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="148">
   <si>
     <t>式神</t>
   </si>
@@ -456,6 +456,22 @@
   </si>
   <si>
     <t>涂壁</t>
+  </si>
+  <si>
+    <t>白童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带白童子的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带黑童子的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1010,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="A40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,22 +1283,22 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1806,161 +1822,161 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="B42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="D42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="14" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="B43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>19</v>
@@ -1968,147 +1984,147 @@
     </row>
     <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B53" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E53" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>88</v>
@@ -2117,7 +2133,7 @@
         <v>39</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>44</v>
@@ -2128,19 +2144,19 @@
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>19</v>
@@ -2148,7 +2164,7 @@
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>88</v>
@@ -2157,10 +2173,10 @@
         <v>39</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>19</v>
@@ -2168,59 +2184,59 @@
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>11</v>
@@ -2228,47 +2244,47 @@
     </row>
     <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>88</v>
@@ -2277,10 +2293,10 @@
         <v>54</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>19</v>
@@ -2288,47 +2304,47 @@
     </row>
     <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>88</v>
@@ -2337,30 +2353,30 @@
         <v>39</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>13</v>
@@ -2368,136 +2384,136 @@
     </row>
     <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="17" t="s">
+      <c r="A71" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="17" t="s">
+      <c r="D71" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="17" t="s">
+      <c r="F71" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>132</v>
+      <c r="F72" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F73" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>40</v>
@@ -2506,21 +2522,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>132</v>
@@ -2528,19 +2544,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>132</v>
@@ -2548,19 +2564,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="F77" s="16" t="s">
         <v>132</v>
@@ -2568,7 +2584,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>131</v>
@@ -2588,7 +2604,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>131</v>
@@ -2608,7 +2624,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>131</v>
@@ -2628,7 +2644,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>131</v>
@@ -2648,7 +2664,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>131</v>
@@ -2663,6 +2679,46 @@
         <v>132</v>
       </c>
       <c r="F82" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="16" t="s">
         <v>132</v>
       </c>
     </row>

--- a/attachments/阴阳师式神传记解锁进度统计表.xlsx
+++ b/attachments/阴阳师式神传记解锁进度统计表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="171">
   <si>
     <t>式神</t>
   </si>
@@ -71,9 +71,6 @@
     <t>花鸟卷</t>
   </si>
   <si>
-    <t>阎摩</t>
-  </si>
-  <si>
     <t>进行觉醒</t>
   </si>
   <si>
@@ -89,388 +86,496 @@
     <t>茨木童子</t>
   </si>
   <si>
+    <t>出战下通关单人觉醒副本第9层</t>
+  </si>
+  <si>
+    <t>酒吞童子</t>
+  </si>
+  <si>
+    <t>与携带鬼女红叶的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>大天狗</t>
+  </si>
+  <si>
+    <t>一目连</t>
+  </si>
+  <si>
+    <t>荒川之主</t>
+  </si>
+  <si>
+    <t>技能升级6次</t>
+  </si>
+  <si>
+    <t>小鹿男</t>
+  </si>
+  <si>
+    <t>两面佛</t>
+  </si>
+  <si>
+    <t>参与30次结界突破进攻</t>
+  </si>
+  <si>
+    <t>二口女</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>参与60次结界突破进攻</t>
+  </si>
+  <si>
+    <t>出战取得50场胜利</t>
+  </si>
+  <si>
+    <t>傀儡师</t>
+  </si>
+  <si>
+    <t>通过结界养育获得50000点经验</t>
+  </si>
+  <si>
+    <t>在百鬼夜行中获得40个碎片</t>
+  </si>
+  <si>
+    <t>凤凰火</t>
+  </si>
+  <si>
+    <t>判官</t>
+  </si>
+  <si>
+    <t>吸血姬</t>
+  </si>
+  <si>
+    <t>夜叉</t>
+  </si>
+  <si>
+    <t>出战下通关单人觉醒副本第5层</t>
+  </si>
+  <si>
+    <t>在百鬼夜行中获得30个碎片</t>
+  </si>
+  <si>
+    <t>妖狐</t>
+  </si>
+  <si>
+    <t>在斗技中取得20次对抗河童的胜利</t>
+  </si>
+  <si>
+    <t>参与40场斗技并取胜</t>
+  </si>
+  <si>
+    <t>妖琴师</t>
+  </si>
+  <si>
+    <t>姑获鸟</t>
+  </si>
+  <si>
+    <t>出战下通关御魂副本第5层</t>
+  </si>
+  <si>
+    <t>孟婆</t>
+  </si>
+  <si>
+    <t>与携带山兔的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>惠比寿</t>
+  </si>
+  <si>
+    <t>桃花妖</t>
+  </si>
+  <si>
+    <t>出战下通关御魂副本第7层</t>
+  </si>
+  <si>
+    <t>樱花妖</t>
+  </si>
+  <si>
+    <t>与携带桃花妖的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>海坊主</t>
+  </si>
+  <si>
+    <t>清姬</t>
+  </si>
+  <si>
+    <t>犬神</t>
+  </si>
+  <si>
+    <t>白狼</t>
+  </si>
+  <si>
+    <t>络新妇</t>
+  </si>
+  <si>
+    <t>出战下通关御魂副本第8层</t>
+  </si>
+  <si>
+    <t>般若</t>
+  </si>
+  <si>
+    <t>跳跳哥哥</t>
+  </si>
+  <si>
+    <t>与携带跳跳弟弟的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>镰鼬</t>
+  </si>
+  <si>
+    <t>雪女</t>
+  </si>
+  <si>
+    <t>出战下通关单人觉醒副本第7层</t>
+  </si>
+  <si>
+    <t>青坊主</t>
+  </si>
+  <si>
+    <t>技能升级5次</t>
+  </si>
+  <si>
+    <t>技能升级7次</t>
+  </si>
+  <si>
+    <t>食梦貘</t>
+  </si>
+  <si>
+    <t>与携带蝴蝶精的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>骨女</t>
+  </si>
+  <si>
+    <t>鬼使白</t>
+  </si>
+  <si>
+    <t>与携带鬼使黑的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>鬼使黑</t>
+  </si>
+  <si>
+    <t>鬼女红叶</t>
+  </si>
+  <si>
+    <t>三尾狐</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>丑时之女</t>
+  </si>
+  <si>
+    <t>九命猫</t>
+  </si>
+  <si>
+    <t>兵俑</t>
+  </si>
+  <si>
+    <t>古笼火</t>
+  </si>
+  <si>
+    <t>山兔</t>
+  </si>
+  <si>
+    <t>与携带孟婆的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>山童</t>
+  </si>
+  <si>
+    <t>巫蛊师</t>
+  </si>
+  <si>
+    <t>座敷童子</t>
+  </si>
+  <si>
+    <t>椒图</t>
+  </si>
+  <si>
+    <t>武士之灵</t>
+  </si>
+  <si>
+    <t>河童</t>
+  </si>
+  <si>
+    <t>与携带鲤鱼精的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>独眼小僧</t>
+  </si>
+  <si>
+    <t>狸猫</t>
+  </si>
+  <si>
+    <t>童女</t>
+  </si>
+  <si>
+    <t>童男</t>
+  </si>
+  <si>
+    <t>与携带童女的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>管狐</t>
+  </si>
+  <si>
+    <t>萤草</t>
+  </si>
+  <si>
+    <t>蝴蝶精</t>
+  </si>
+  <si>
+    <t>觉</t>
+  </si>
+  <si>
+    <t>在阴阳寮进行10次碎片祈愿</t>
+  </si>
+  <si>
+    <t>跳跳妹妹</t>
+  </si>
+  <si>
+    <t>与携带跳跳哥哥的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>跳跳弟弟</t>
+  </si>
+  <si>
+    <t>与携带跳跳妹妹的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>铁鼠</t>
+  </si>
+  <si>
+    <t>雨女</t>
+  </si>
+  <si>
+    <t>青蛙瓷器</t>
+  </si>
+  <si>
+    <t>与携带雨女的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>食发鬼</t>
+  </si>
+  <si>
+    <t>饿鬼</t>
+  </si>
+  <si>
+    <t>首无</t>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+  </si>
+  <si>
+    <t>与携带河童的其他玩家取得10次协战胜利</t>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+  </si>
+  <si>
+    <t>赤舌</t>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+  </si>
+  <si>
+    <t>唐纸伞妖</t>
+  </si>
+  <si>
+    <t>寄生魂</t>
+  </si>
+  <si>
+    <t>天邪鬼绿</t>
+  </si>
+  <si>
+    <t>天邪鬼黄</t>
+  </si>
+  <si>
+    <t>天邪鬼赤</t>
+  </si>
+  <si>
+    <t>天邪鬼青</t>
+  </si>
+  <si>
+    <t>帚神</t>
+  </si>
+  <si>
+    <t>涂壁</t>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗首无的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在阴阳寮进行15次碎片祈愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在阴阳寮中捐赠10次碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与30场斗技并取胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级8次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级6次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与携带酒吞童子的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>出战下通关单人觉醒副本第9层</t>
-  </si>
-  <si>
-    <t>酒吞童子</t>
-  </si>
-  <si>
-    <t>与携带鬼女红叶的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>大天狗</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗荒川之主的胜利</t>
-  </si>
-  <si>
-    <t>一目连</t>
-  </si>
-  <si>
-    <t>荒川之主</t>
-  </si>
-  <si>
-    <t>技能升级6次</t>
-  </si>
-  <si>
-    <t>小鹿男</t>
-  </si>
-  <si>
-    <t>在阴阳寮进行20次碎片祈愿</t>
-  </si>
-  <si>
-    <t>两面佛</t>
-  </si>
-  <si>
-    <t>参与30次结界突破进攻</t>
-  </si>
-  <si>
-    <t>二口女</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>参与60次结界突破进攻</t>
-  </si>
-  <si>
-    <t>出战取得50场胜利</t>
-  </si>
-  <si>
-    <t>傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带黑童子的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风转符，天雷鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在阴阳寮中捐赠5次碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗荒川之主的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗雪女的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带鬼使白的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带白童子的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗巫蛊师的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与50场斗技并取胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升至40级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水灵鲤，天雷鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战下通关单人觉醒副本第5层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗犬神的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗九命猫的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗白狼的胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万年竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带童男的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与携带辉夜姬的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升至30级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战下通关御魂副本第5层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战下通关御魂副本第9层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过结界养育获得50000点经验</t>
-  </si>
-  <si>
-    <t>在百鬼夜行中获得40个碎片</t>
-  </si>
-  <si>
-    <t>凤凰火</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗雪女的胜利</t>
-  </si>
-  <si>
-    <t>判官</t>
-  </si>
-  <si>
-    <t>在阴阳寮中捐赠15次碎片</t>
-  </si>
-  <si>
-    <t>吸血姬</t>
-  </si>
-  <si>
-    <t>夜叉</t>
-  </si>
-  <si>
-    <t>出战下通关单人觉醒副本第5层</t>
-  </si>
-  <si>
-    <t>在百鬼夜行中获得30个碎片</t>
-  </si>
-  <si>
-    <t>妖狐</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗河童的胜利</t>
-  </si>
-  <si>
-    <t>参与40场斗技并取胜</t>
-  </si>
-  <si>
-    <t>妖琴师</t>
-  </si>
-  <si>
-    <t>姑获鸟</t>
-  </si>
-  <si>
-    <t>出战下通关御魂副本第5层</t>
-  </si>
-  <si>
-    <t>孟婆</t>
-  </si>
-  <si>
-    <t>与携带山兔的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>惠比寿</t>
-  </si>
-  <si>
-    <t>桃花妖</t>
-  </si>
-  <si>
-    <t>出战下通关御魂副本第7层</t>
-  </si>
-  <si>
-    <t>樱花妖</t>
-  </si>
-  <si>
-    <t>与携带桃花妖的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>海坊主</t>
-  </si>
-  <si>
-    <t>清姬</t>
-  </si>
-  <si>
-    <t>犬神</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗九命猫的胜利</t>
-  </si>
-  <si>
-    <t>白狼</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗首无的胜利</t>
-  </si>
-  <si>
-    <t>络新妇</t>
-  </si>
-  <si>
-    <t>出战下通关御魂副本第8层</t>
-  </si>
-  <si>
-    <t>般若</t>
-  </si>
-  <si>
-    <t>跳跳哥哥</t>
-  </si>
-  <si>
-    <t>与携带跳跳弟弟的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>镰鼬</t>
-  </si>
-  <si>
-    <t>雪女</t>
-  </si>
-  <si>
-    <t>出战下通关单人觉醒副本第7层</t>
-  </si>
-  <si>
-    <t>青坊主</t>
-  </si>
-  <si>
-    <t>技能升级5次</t>
-  </si>
-  <si>
-    <t>技能升级7次</t>
-  </si>
-  <si>
-    <t>食梦貘</t>
-  </si>
-  <si>
-    <t>与携带蝴蝶精的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>骨女</t>
-  </si>
-  <si>
-    <t>鬼使白</t>
-  </si>
-  <si>
-    <t>与携带鬼使黑的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>鬼使黑</t>
-  </si>
-  <si>
-    <t>与携带鬼使白的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>鬼女红叶</t>
-  </si>
-  <si>
-    <t>三尾狐</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>丑时之女</t>
-  </si>
-  <si>
-    <t>九命猫</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗犬神的胜利</t>
-  </si>
-  <si>
-    <t>兵俑</t>
-  </si>
-  <si>
-    <t>古笼火</t>
-  </si>
-  <si>
-    <t>山兔</t>
-  </si>
-  <si>
-    <t>与携带孟婆的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>山童</t>
-  </si>
-  <si>
-    <t>巫蛊师</t>
-  </si>
-  <si>
-    <t>座敷童子</t>
-  </si>
-  <si>
-    <t>椒图</t>
-  </si>
-  <si>
-    <t>武士之灵</t>
-  </si>
-  <si>
-    <t>河童</t>
-  </si>
-  <si>
-    <t>与携带鲤鱼精的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>独眼小僧</t>
-  </si>
-  <si>
-    <t>狸猫</t>
-  </si>
-  <si>
-    <t>童女</t>
-  </si>
-  <si>
-    <t>与携带童男的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>童男</t>
-  </si>
-  <si>
-    <t>与携带童女的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>管狐</t>
-  </si>
-  <si>
-    <t>萤草</t>
-  </si>
-  <si>
-    <t>蝴蝶精</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗巫蛊师的胜利</t>
-  </si>
-  <si>
-    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在阴阳寮进行10次碎片祈愿</t>
-  </si>
-  <si>
-    <t>跳跳妹妹</t>
-  </si>
-  <si>
-    <t>与携带跳跳哥哥的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>跳跳弟弟</t>
-  </si>
-  <si>
-    <t>与携带跳跳妹妹的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>铁鼠</t>
-  </si>
-  <si>
-    <t>雨女</t>
-  </si>
-  <si>
-    <t>青蛙瓷器</t>
-  </si>
-  <si>
-    <t>与携带雨女的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>食发鬼</t>
-  </si>
-  <si>
-    <t>饿鬼</t>
-  </si>
-  <si>
-    <t>首无</t>
-  </si>
-  <si>
-    <t>在斗技中取得20次对抗白狼的胜利</t>
-  </si>
-  <si>
-    <t>鲤鱼精</t>
-  </si>
-  <si>
-    <t>与携带河童的其他玩家取得10次协战胜利</t>
-  </si>
-  <si>
-    <t>鸦天狗</t>
-  </si>
-  <si>
-    <t>灯笼鬼</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>提灯小僧</t>
-  </si>
-  <si>
-    <t>赤舌</t>
-  </si>
-  <si>
-    <t>盗墓小鬼</t>
-  </si>
-  <si>
-    <t>唐纸伞妖</t>
-  </si>
-  <si>
-    <t>寄生魂</t>
-  </si>
-  <si>
-    <t>天邪鬼绿</t>
-  </si>
-  <si>
-    <t>天邪鬼黄</t>
-  </si>
-  <si>
-    <t>天邪鬼赤</t>
-  </si>
-  <si>
-    <t>天邪鬼青</t>
-  </si>
-  <si>
-    <t>帚神</t>
-  </si>
-  <si>
-    <t>涂壁</t>
-  </si>
-  <si>
-    <t>白童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与携带白童子的其他玩家取得10次协战胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与携带黑童子的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过结界养育获得50000点经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在阴阳寮中捐赠5次碎片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="A40:F41"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1062,44 +1167,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1110,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -1122,55 +1227,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -1179,98 +1284,98 @@
         <v>10</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
@@ -1279,204 +1384,204 @@
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
@@ -1484,459 +1589,459 @@
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="13" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="D27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F28" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="12" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="D37" s="13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="14" t="s">
+      <c r="D44" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>11</v>
@@ -1944,139 +2049,139 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>13</v>
@@ -2084,39 +2189,39 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>11</v>
@@ -2124,605 +2229,648 @@
     </row>
     <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="D60" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="14" t="s">
+      <c r="B74" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="F77" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:I86">
+    <sortCondition descending="1" ref="B2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/attachments/阴阳师式神传记解锁进度统计表.xlsx
+++ b/attachments/阴阳师式神传记解锁进度统计表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\mysite\static\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\阴阳师式神统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
     <t>妖狐</t>
   </si>
   <si>
-    <t>在斗技中取得20次对抗河童的胜利</t>
-  </si>
-  <si>
     <t>参与40场斗技并取胜</t>
   </si>
   <si>
@@ -576,6 +573,10 @@
   </si>
   <si>
     <t>在阴阳寮中捐赠5次碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在斗技中取得5次对抗河童的胜利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,8 +1135,8 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>
@@ -1198,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>17</v>
@@ -1215,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -1229,22 +1230,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1255,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>26</v>
@@ -1335,10 +1336,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
@@ -1409,19 +1410,19 @@
     </row>
     <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>11</v>
@@ -1429,27 +1430,27 @@
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>31</v>
@@ -1498,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>10</v>
@@ -1509,19 +1510,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>13</v>
@@ -1529,7 +1530,7 @@
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>31</v>
@@ -1541,7 +1542,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
@@ -1549,7 +1550,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>31</v>
@@ -1569,7 +1570,7 @@
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>31</v>
@@ -1578,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>9</v>
@@ -1589,7 +1590,7 @@
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>31</v>
@@ -1598,7 +1599,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>10</v>
@@ -1609,7 +1610,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>31</v>
@@ -1621,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>18</v>
@@ -1629,19 +1630,19 @@
     </row>
     <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>146</v>
-      </c>
       <c r="D25" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>18</v>
@@ -1649,22 +1650,22 @@
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -1689,13 +1690,13 @@
     </row>
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
@@ -1709,19 +1710,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>18</v>
@@ -1729,7 +1730,7 @@
     </row>
     <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>31</v>
@@ -1741,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
@@ -1761,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>18</v>
@@ -1769,19 +1770,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>13</v>
@@ -1789,7 +1790,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>31</v>
@@ -1798,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>10</v>
@@ -1809,7 +1810,7 @@
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>31</v>
@@ -1818,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>13</v>
@@ -1829,7 +1830,7 @@
     </row>
     <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>31</v>
@@ -1838,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>36</v>
@@ -1849,7 +1850,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>31</v>
@@ -1861,7 +1862,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>18</v>
@@ -1869,7 +1870,7 @@
     </row>
     <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>31</v>
@@ -1878,7 +1879,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>10</v>
@@ -1889,22 +1890,22 @@
     </row>
     <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1918,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>33</v>
@@ -1929,7 +1930,7 @@
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>31</v>
@@ -1941,7 +1942,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>18</v>
@@ -1955,13 +1956,13 @@
         <v>31</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>18</v>
@@ -1969,7 +1970,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>31</v>
@@ -1978,10 +1979,10 @@
         <v>15</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>18</v>
@@ -2009,7 +2010,7 @@
     </row>
     <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>31</v>
@@ -2021,7 +2022,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>11</v>
@@ -2029,10 +2030,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>15</v>
@@ -2041,7 +2042,7 @@
         <v>42</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>11</v>
@@ -2049,10 +2050,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>29</v>
@@ -2069,19 +2070,19 @@
     </row>
     <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>18</v>
@@ -2089,10 +2090,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>29</v>
@@ -2101,21 +2102,21 @@
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>32</v>
@@ -2129,10 +2130,10 @@
     </row>
     <row r="50" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>35</v>
@@ -2149,16 +2150,16 @@
     </row>
     <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>9</v>
@@ -2169,10 +2170,10 @@
     </row>
     <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>29</v>
@@ -2181,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>13</v>
@@ -2189,19 +2190,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>13</v>
@@ -2209,13 +2210,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>15</v>
@@ -2229,10 +2230,10 @@
     </row>
     <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>29</v>
@@ -2241,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>11</v>
@@ -2249,19 +2250,19 @@
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>18</v>
@@ -2269,16 +2270,16 @@
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>36</v>
@@ -2289,10 +2290,10 @@
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>35</v>
@@ -2301,7 +2302,7 @@
         <v>42</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>13</v>
@@ -2309,10 +2310,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>15</v>
@@ -2321,7 +2322,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>13</v>
@@ -2329,10 +2330,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>8</v>
@@ -2341,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>18</v>
@@ -2349,19 +2350,19 @@
     </row>
     <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>13</v>
@@ -2369,10 +2370,10 @@
     </row>
     <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>35</v>
@@ -2389,10 +2390,10 @@
     </row>
     <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>41</v>
@@ -2401,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>13</v>
@@ -2409,16 +2410,16 @@
     </row>
     <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>36</v>
@@ -2429,19 +2430,19 @@
     </row>
     <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>18</v>
@@ -2449,19 +2450,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>18</v>
@@ -2469,16 +2470,16 @@
     </row>
     <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>36</v>
@@ -2489,19 +2490,19 @@
     </row>
     <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>18</v>
@@ -2509,10 +2510,10 @@
     </row>
     <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>35</v>
@@ -2521,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>11</v>
@@ -2529,10 +2530,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>8</v>
@@ -2541,7 +2542,7 @@
         <v>33</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>11</v>
@@ -2549,10 +2550,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>29</v>
@@ -2564,15 +2565,15 @@
         <v>36</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>35</v>
@@ -2581,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>11</v>
@@ -2589,10 +2590,10 @@
     </row>
     <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>35</v>
@@ -2609,19 +2610,19 @@
     </row>
     <row r="74" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>13</v>
@@ -2629,10 +2630,10 @@
     </row>
     <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>41</v>
@@ -2644,78 +2645,78 @@
         <v>10</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>32</v>
@@ -2724,15 +2725,15 @@
         <v>9</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>35</v>
@@ -2744,127 +2745,127 @@
         <v>36</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/attachments/阴阳师式神传记解锁进度统计表.xlsx
+++ b/attachments/阴阳师式神传记解锁进度统计表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\阴阳师式神统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\mysite\static\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="176">
   <si>
     <t>式神</t>
   </si>
@@ -578,6 +578,23 @@
   <si>
     <t>在斗技中取得5次对抗河童的胜利</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉夜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鱼姬</t>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+  </si>
+  <si>
+    <t>与携带食发鬼的其他玩家取得10次协战胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战取得40场胜利</t>
   </si>
 </sst>
 </file>
@@ -1132,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,238 +1425,238 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>11</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="D25" s="13" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>141</v>
@@ -1650,53 +1667,53 @@
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
@@ -1708,49 +1725,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>31</v>
@@ -1759,190 +1776,190 @@
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="B37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>18</v>
@@ -1950,59 +1967,59 @@
     </row>
     <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>18</v>
@@ -2010,127 +2027,127 @@
     </row>
     <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>11</v>
+    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>18</v>
+      <c r="A47" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>78</v>
@@ -2139,18 +2156,18 @@
         <v>35</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>78</v>
@@ -2159,70 +2176,70 @@
         <v>29</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>11</v>
@@ -2230,7 +2247,7 @@
     </row>
     <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>78</v>
@@ -2239,47 +2256,47 @@
         <v>29</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>36</v>
@@ -2290,127 +2307,127 @@
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>78</v>
@@ -2419,58 +2436,58 @@
         <v>8</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>78</v>
@@ -2479,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>36</v>
@@ -2490,47 +2507,47 @@
     </row>
     <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>141</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>78</v>
@@ -2539,38 +2556,38 @@
         <v>8</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>78</v>
@@ -2582,127 +2599,127 @@
         <v>15</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="14" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A76" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A77" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D77" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E77" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F77" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="16" t="s">
+    <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>118</v>
@@ -2710,19 +2727,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>118</v>
@@ -2730,7 +2747,7 @@
     </row>
     <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>117</v>
@@ -2739,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>36</v>
@@ -2750,7 +2767,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>117</v>
@@ -2770,39 +2787,39 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F82" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>118</v>
@@ -2810,7 +2827,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>117</v>
@@ -2830,7 +2847,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>117</v>
@@ -2850,7 +2867,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>117</v>
@@ -2865,6 +2882,66 @@
         <v>118</v>
       </c>
       <c r="F86" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="16" t="s">
         <v>118</v>
       </c>
     </row>
